--- a/biology/Botanique/Parc_national_Skolivski_Beskydy/Parc_national_Skolivski_Beskydy.xlsx
+++ b/biology/Botanique/Parc_national_Skolivski_Beskydy/Parc_national_Skolivski_Beskydy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc national de Skolivski Beskydy (en ukrainien : Сколівські Бескиди (національний природний парк)) est un parc régional situé dans l'oblast de Lviv, en Ukraine.
 </t>
@@ -511,9 +523,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc et les montagnes sont connues pour leur air vivifiant et sa nature[2]. Des maisons et des circuits sont proposés aux visiteurs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc et les montagnes sont connues pour leur air vivifiant et sa nature. Des maisons et des circuits sont proposés aux visiteurs.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 11 février 1999, le décret présidentiel consacre la réserve naturelle. Elle recouvre une superficie de 35 261 kilomètres carrés dans les Beskides orientales.
 			La rivière Opir,
-			point de vue du Tustan, classé[3],
+			point de vue du Tustan, classé,
 			et chutes d'eau de son affluent Kamianka,
-			les chutes Gourkalo, réserve naturelle[4],
+			les chutes Gourkalo, réserve naturelle,
 			en hiver,
 			le mont Paraska,
 			la rivière Zelemianka,
